--- a/content/smart-health/docs/diccionario_datos.xlsx
+++ b/content/smart-health/docs/diccionario_datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gisel\OneDrive\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gisel\OneDrive\Documentos\GitHub\gisell3010\sql-101-mastering\content\smart-health\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88CF94C-B360-4517-972C-9A7F4E5B545B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF25937F-EF5C-421A-A28D-0DE8691D1CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DICCIONARIO DE DATOS" sheetId="12" r:id="rId1"/>
@@ -22,8 +22,8 @@
     <sheet name="DOCTOR_SPECIALTIES" sheetId="18" r:id="rId7"/>
     <sheet name="DOCTOR_ADDRESSES" sheetId="19" r:id="rId8"/>
     <sheet name="DEPARTMENTS" sheetId="2" r:id="rId9"/>
-    <sheet name="MUNICIPALITIES" sheetId="3" r:id="rId10"/>
-    <sheet name="ADDRESSES" sheetId="4" r:id="rId11"/>
+    <sheet name="ADDRESSES" sheetId="4" r:id="rId10"/>
+    <sheet name="MUNICIPALITIES" sheetId="3" r:id="rId11"/>
     <sheet name="DOCUMENT_TYPES" sheetId="5" r:id="rId12"/>
     <sheet name="SPECIALTIES" sheetId="6" r:id="rId13"/>
     <sheet name="DIAGNOSES" sheetId="7" r:id="rId14"/>
@@ -36,6 +36,17 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
     </ext>
@@ -44,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="310">
   <si>
     <t>Campo</t>
   </si>
@@ -217,9 +228,6 @@
     <t>PATIENT_ALLERGIES</t>
   </si>
   <si>
-    <t>Relaciona pacientes con sus direcciones, especificando tipo (Permanente o Temporal), si es principal y el periodo de validez.</t>
-  </si>
-  <si>
     <t>Registra alergias del paciente a medicamentos específicos, incluyendo severidad, descripción de la reacción y fecha de diagnóstico.</t>
   </si>
   <si>
@@ -235,9 +243,6 @@
     <t>DOCTOR_ADDRESSES</t>
   </si>
   <si>
-    <t>Relaciona médicos con sus lugares de práctica (consultorio u hospital), con tipo, horario de atención y si es su dirección principal.</t>
-  </si>
-  <si>
     <t>Catálogo de departamentos o estados, con código y nombre..</t>
   </si>
   <si>
@@ -410,59 +415,6 @@
   </si>
   <si>
     <t>Indica si es el teléfono principal</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">CHECK </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(gender IN ('M','F','O'))</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">FK </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>→ document_types(document_type_id)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> → patients(patient_id)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -503,9 +455,6 @@
     <t>address_type</t>
   </si>
   <si>
-    <t>Tipo de dirección (Permanent: Permanente, Temporary: Temporal)</t>
-  </si>
-  <si>
     <t>Indica si es la dirección principal</t>
   </si>
   <si>
@@ -521,29 +470,6 @@
     <t>Fecha de fin de validez</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> → addresses(address_id)</t>
-    </r>
-  </si>
-  <si>
     <t>patient_allergy_id</t>
   </si>
   <si>
@@ -559,9 +485,6 @@
     <t>severity</t>
   </si>
   <si>
-    <t>Severidad de la alergia (Mild: Leve, Moderate: Moderada, Severe: Severa)</t>
-  </si>
-  <si>
     <t>reaction_description</t>
   </si>
   <si>
@@ -577,29 +500,6 @@
     <t>Fecha de diagnóstico de la alergia</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> → medications(medication_id)</t>
-    </r>
-  </si>
-  <si>
     <t>doctor_id</t>
   </si>
   <si>
@@ -669,56 +569,7 @@
     <t>Indica si la especialidad está activa para el médico</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> → doctors(doctor_id)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> → specialties(specialty_id)</t>
-    </r>
-  </si>
-  <si>
     <t>doctor_address_id</t>
-  </si>
-  <si>
-    <t>Tipo de lugar (Office: Consultorio, Hospital: Hospital)</t>
   </si>
   <si>
     <t>office_hours</t>
@@ -1092,9 +943,6 @@
     <t>record_diagnosis_id</t>
   </si>
   <si>
-    <t>FK → medical_records(medical_record_id), NOT NULL</t>
-  </si>
-  <si>
     <t>Referencia al registro médico</t>
   </si>
   <si>
@@ -1134,6 +982,270 @@
     </r>
   </si>
   <si>
+    <t>prescription_id</t>
+  </si>
+  <si>
+    <t>Identificador único de la prescripción</t>
+  </si>
+  <si>
+    <t>dosage</t>
+  </si>
+  <si>
+    <t>Dosis del medicamento</t>
+  </si>
+  <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t>Frecuencia de administración</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>Duración del tratamiento</t>
+  </si>
+  <si>
+    <t>instruction</t>
+  </si>
+  <si>
+    <t>Instrucciones adicionales para el paciente</t>
+  </si>
+  <si>
+    <t>prescription_date</t>
+  </si>
+  <si>
+    <t>Fecha y hora de la prescripción</t>
+  </si>
+  <si>
+    <t>alert_generated</t>
+  </si>
+  <si>
+    <t>Indica si se generó alguna alerta (por alergia o interacción)</t>
+  </si>
+  <si>
+    <t>Relaciona médicos con sus lugares de práctica, con tipo, horario de atención y si es su dirección principal.</t>
+  </si>
+  <si>
+    <t>Relaciona pacientes con sus direcciones, especificando tipo, si es principal y el periodo de validez.</t>
+  </si>
+  <si>
+    <t>blood_type</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NOT NULL, CHECK </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(gender IN ('M','F','O'))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NOT NULL, FK </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>→ document_types(document_type_id)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CHECK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (blood_type IN ('A+','A-','B+','B-','AB+','AB-','O+','O-'))</t>
+    </r>
+  </si>
+  <si>
+    <t>Tipo de sangre del paciente</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOT NULL, FK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → patients(patient_id)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOT NULL, FK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → addresses(address_id)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo de dirección </t>
+  </si>
+  <si>
+    <t>CONSTRAINTS</t>
+  </si>
+  <si>
+    <t>CHECK</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOT NULL, FK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → medications(medication_id)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOT NULL, CHECK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (severity IN ('Leve', 'Moderada', 'Grave', 'Crítica', 'Letal')</t>
+    </r>
+  </si>
+  <si>
+    <t>Severidad de la alergia</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOT NULL, FK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → doctors(doctor_id)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOT NULL, FK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → specialties(specialty_id)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">uq_doctor_specialty (doctor_id, specialty_id)
+</t>
+  </si>
+  <si>
+    <t>Tipo de lugar</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1151,7 +1263,17 @@
         <rFont val="Arial Narrow"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> → diagnoses(diagnosis_id), NOT NULL</t>
+      <t xml:space="preserve"> → doctors(doctor_id),</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> NOT NULL</t>
     </r>
   </si>
   <si>
@@ -1172,60 +1294,135 @@
         <rFont val="Arial Narrow"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> → medical_records(medical_record_id), NOT NULL</t>
+      <t xml:space="preserve"> → patients(patient_id),</t>
     </r>
-  </si>
-  <si>
-    <t>prescription_id</t>
-  </si>
-  <si>
-    <t>Identificador único de la prescripción</t>
-  </si>
-  <si>
-    <t>FK → medications(medication_id), NOT NULL</t>
-  </si>
-  <si>
-    <t>dosage</t>
-  </si>
-  <si>
-    <t>Dosis del medicamento</t>
-  </si>
-  <si>
-    <t>frequency</t>
-  </si>
-  <si>
-    <t>Frecuencia de administración</t>
-  </si>
-  <si>
-    <t>duration</t>
-  </si>
-  <si>
-    <t>Duración del tratamiento</t>
-  </si>
-  <si>
-    <t>instruction</t>
-  </si>
-  <si>
-    <t>Instrucciones adicionales para el paciente</t>
-  </si>
-  <si>
-    <t>prescription_date</t>
-  </si>
-  <si>
-    <t>Fecha y hora de la prescripción</t>
-  </si>
-  <si>
-    <t>alert_generated</t>
-  </si>
-  <si>
-    <t>Indica si se generó alguna alerta (por alergia o interacción)</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> NOT NULL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>FK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> → diagnoses(diagnosis_id), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>NOT NULL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>FK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> → medical_records(medical_record_id), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>NOT NULL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FK → medical_records(medical_record_id), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>NOT NULL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FK → medications(medication_id), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>NOT NULL</t>
+    </r>
+  </si>
+  <si>
+    <t>chk_appointment_time: start_time &lt; end_time</t>
+  </si>
+  <si>
+    <t>uq_record_diagnosis (medical_record_id, diagnosis_id)</t>
+  </si>
+  <si>
+    <t>uq_doctor_address (doctor_id, address_id)</t>
+  </si>
+  <si>
+    <t>chk_doctor_address_type: address_type IN ('Casa','Consultorio','Hospital','Clínica','Administrativa')</t>
+  </si>
+  <si>
+    <t>uq_patient_address (patient_id, address_id)</t>
+  </si>
+  <si>
+    <t>chk_patient_address_type: address_type IN ('Casa','Trabajo','Facturación','Temporal','Contacto Emergencia')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1303,6 +1500,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1423,7 +1628,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1454,39 +1659,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1546,6 +1718,71 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1950,587 +2187,599 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{339450DB-CBA5-4825-8615-F0DCB265D8CD}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36:H36"/>
+    <sheetView topLeftCell="A20" zoomScale="107" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21:H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.109375" customWidth="1"/>
     <col min="2" max="2" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-    </row>
-    <row r="2" spans="1:8" ht="23.4">
-      <c r="A2" s="20" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+    </row>
+    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A2" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-    </row>
-    <row r="3" spans="1:8" ht="60.6" customHeight="1">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+    </row>
+    <row r="3" spans="1:8" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-    </row>
-    <row r="4" spans="1:8" ht="50.4" customHeight="1">
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+    </row>
+    <row r="4" spans="1:8" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-    </row>
-    <row r="5" spans="1:8" ht="33.6" customHeight="1">
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+    </row>
+    <row r="5" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-    </row>
-    <row r="6" spans="1:8" ht="28.2" customHeight="1">
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+    </row>
+    <row r="6" spans="1:8" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-    </row>
-    <row r="7" spans="1:8" ht="38.4" customHeight="1">
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+    </row>
+    <row r="7" spans="1:8" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="52">
         <v>45960</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-    </row>
-    <row r="9" spans="1:8" ht="23.4">
-      <c r="A9" s="20" t="s">
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+    </row>
+    <row r="9" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A9" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-    </row>
-    <row r="10" spans="1:8" ht="48.6" customHeight="1">
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+    </row>
+    <row r="10" spans="1:8" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-    </row>
-    <row r="11" spans="1:8" ht="43.8" customHeight="1">
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+    </row>
+    <row r="11" spans="1:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-    </row>
-    <row r="12" spans="1:8" ht="34.200000000000003" customHeight="1">
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+    </row>
+    <row r="12" spans="1:8" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-    </row>
-    <row r="13" spans="1:8" ht="34.200000000000003" customHeight="1">
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+    </row>
+    <row r="13" spans="1:8" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-    </row>
-    <row r="14" spans="1:8" ht="43.2" customHeight="1">
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+    </row>
+    <row r="14" spans="1:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-    </row>
-    <row r="15" spans="1:8" ht="43.2" customHeight="1">
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+    </row>
+    <row r="15" spans="1:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-    </row>
-    <row r="16" spans="1:8" ht="23.4">
-      <c r="A16" s="20" t="s">
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+    </row>
+    <row r="16" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A16" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-    </row>
-    <row r="17" spans="1:8" ht="18">
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+    </row>
+    <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21" t="s">
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-    </row>
-    <row r="18" spans="1:8" ht="66" customHeight="1">
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+    </row>
+    <row r="18" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="22" t="str">
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="42" t="str">
         <f>HYPERLINK("#'" &amp; A18 &amp; "'!A1", A18 &amp; "_LINK")</f>
         <v>PATIENTS_LINK</v>
       </c>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-    </row>
-    <row r="19" spans="1:8" ht="49.2" customHeight="1">
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+    </row>
+    <row r="19" spans="1:8" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="22" t="str">
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="42" t="str">
         <f t="shared" ref="F19:F36" si="0">HYPERLINK("#'" &amp; A19 &amp; "'!A1", A19 &amp; "_LINK")</f>
         <v>PATIENT_PHONES_LINK</v>
       </c>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-    </row>
-    <row r="20" spans="1:8" ht="49.2" customHeight="1">
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+    </row>
+    <row r="20" spans="1:8" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="22" t="str">
+      <c r="B20" s="43" t="s">
+        <v>280</v>
+      </c>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="42" t="str">
         <f t="shared" si="0"/>
         <v>PATIENT_ADDRESSES_LINK</v>
       </c>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-    </row>
-    <row r="21" spans="1:8" ht="49.2" customHeight="1">
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+    </row>
+    <row r="21" spans="1:8" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="22" t="str">
+      <c r="B21" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="42" t="str">
         <f t="shared" si="0"/>
         <v>PATIENT_ALLERGIES_LINK</v>
       </c>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-    </row>
-    <row r="22" spans="1:8" ht="61.8" customHeight="1">
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+    </row>
+    <row r="22" spans="1:8" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="22" t="str">
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="42" t="str">
         <f t="shared" si="0"/>
         <v>DOCTORS_LINK</v>
       </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-    </row>
-    <row r="23" spans="1:8" ht="46.8" customHeight="1">
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+    </row>
+    <row r="23" spans="1:8" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="22" t="str">
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="42" t="str">
         <f t="shared" si="0"/>
         <v>DOCTOR_SPECIALTIES_LINK</v>
       </c>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-    </row>
-    <row r="24" spans="1:8" ht="52.2" customHeight="1">
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+    </row>
+    <row r="24" spans="1:8" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="22" t="str">
+        <v>61</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>279</v>
+      </c>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="42" t="str">
         <f t="shared" si="0"/>
         <v>DOCTOR_ADDRESSES_LINK</v>
       </c>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-    </row>
-    <row r="25" spans="1:8" ht="33" customHeight="1">
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+    </row>
+    <row r="25" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="22" t="str">
+        <v>63</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="42" t="str">
         <f t="shared" si="0"/>
         <v>DEPARTMENTS_LINK</v>
       </c>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-    </row>
-    <row r="26" spans="1:8" ht="37.799999999999997" customHeight="1">
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+    </row>
+    <row r="26" spans="1:8" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="22" t="str">
+        <v>64</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="42" t="str">
         <f t="shared" si="0"/>
         <v>MUNICIPALITIES_LINK</v>
       </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-    </row>
-    <row r="27" spans="1:8" ht="53.4" customHeight="1">
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+    </row>
+    <row r="27" spans="1:8" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="22" t="str">
+        <v>66</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="42" t="str">
         <f t="shared" si="0"/>
         <v>ADDRESSES_LINK</v>
       </c>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-    </row>
-    <row r="28" spans="1:8" ht="40.799999999999997" customHeight="1">
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+    </row>
+    <row r="28" spans="1:8" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="22" t="str">
+        <v>68</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="42" t="str">
         <f t="shared" si="0"/>
         <v>DOCUMENT_TYPES_LINK</v>
       </c>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-    </row>
-    <row r="29" spans="1:8" ht="31.8" customHeight="1">
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+    </row>
+    <row r="29" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="22" t="str">
+        <v>70</v>
+      </c>
+      <c r="B29" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="42" t="str">
         <f t="shared" si="0"/>
         <v>SPECIALTIES_LINK</v>
       </c>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-    </row>
-    <row r="30" spans="1:8" ht="37.799999999999997" customHeight="1">
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+    </row>
+    <row r="30" spans="1:8" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="22" t="str">
+        <v>72</v>
+      </c>
+      <c r="B30" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="42" t="str">
         <f t="shared" si="0"/>
         <v>DIAGNOSES_LINK</v>
       </c>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-    </row>
-    <row r="31" spans="1:8" ht="36" customHeight="1">
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+    </row>
+    <row r="31" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="22" t="str">
+        <v>73</v>
+      </c>
+      <c r="B31" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="42" t="str">
         <f t="shared" si="0"/>
         <v>MEDICATIONS_LINK</v>
       </c>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-    </row>
-    <row r="32" spans="1:8" ht="34.799999999999997" customHeight="1">
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+    </row>
+    <row r="32" spans="1:8" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="22" t="str">
+        <v>74</v>
+      </c>
+      <c r="B32" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="42" t="str">
         <f t="shared" si="0"/>
         <v>ROOMS_LINK</v>
       </c>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-    </row>
-    <row r="33" spans="1:8" ht="54" customHeight="1">
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+    </row>
+    <row r="33" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="22" t="str">
+        <v>75</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="42" t="str">
         <f t="shared" si="0"/>
         <v>APPOINTMENTS_LINK</v>
       </c>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-    </row>
-    <row r="34" spans="1:8" ht="54" customHeight="1">
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+    </row>
+    <row r="34" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="22" t="str">
+        <v>76</v>
+      </c>
+      <c r="B34" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="42" t="str">
         <f t="shared" si="0"/>
         <v>MEDICAL_RECORDS_LINK</v>
       </c>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-    </row>
-    <row r="35" spans="1:8" ht="54" customHeight="1">
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+    </row>
+    <row r="35" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="22" t="str">
+        <v>77</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="42" t="str">
         <f t="shared" si="0"/>
         <v>RECORD_DIAGNOSES_LINK</v>
       </c>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-    </row>
-    <row r="36" spans="1:8" ht="59.4" customHeight="1">
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+    </row>
+    <row r="36" spans="1:8" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="22" t="str">
+        <v>78</v>
+      </c>
+      <c r="B36" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="42" t="str">
         <f t="shared" si="0"/>
         <v>PRESCRIPTIONS_LINK</v>
       </c>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:H24"/>
     <mergeCell ref="B36:E36"/>
     <mergeCell ref="F36:H36"/>
     <mergeCell ref="B26:E26"/>
@@ -2547,32 +2796,20 @@
     <mergeCell ref="F31:H31"/>
     <mergeCell ref="F32:H32"/>
     <mergeCell ref="F33:H33"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2581,6 +2818,133 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView zoomScale="140" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66" customWidth="1"/>
+    <col min="5" max="5" width="44" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="33">
+        <v>10</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="34">
+        <v>200</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="34">
+        <v>20</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -2588,19 +2952,19 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="171" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A6" sqref="A6:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="62.5546875" customWidth="1"/>
     <col min="5" max="5" width="33.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2611,15 +2975,15 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>5</v>
@@ -2631,12 +2995,12 @@
         <v>24</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>5</v>
@@ -2648,151 +3012,24 @@
         <v>25</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.8" customHeight="1">
-      <c r="A4" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="B4" s="38" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="28">
         <v>10</v>
       </c>
-      <c r="D4" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>189</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView zoomScale="140" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45" customWidth="1"/>
-    <col min="5" max="5" width="44" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="44">
-        <v>10</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>191</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="45">
-        <v>200</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="45">
-        <v>20</v>
-      </c>
-      <c r="D5" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>197</v>
+      <c r="D4" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2807,11 +3044,11 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="168" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="128" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.44140625" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -2820,7 +3057,7 @@
     <col min="5" max="5" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2831,78 +3068,78 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="20" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="35">
         <v>70</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="35">
         <v>10</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.4" customHeight="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="35" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2918,9 +3155,11 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView zoomScale="176" workbookViewId="0"/>
+    <sheetView zoomScale="176" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.21875" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -2929,7 +3168,7 @@
     <col min="5" max="5" width="32.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2940,15 +3179,15 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
@@ -2960,32 +3199,32 @@
         <v>24</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="35">
         <v>100</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>7</v>
@@ -2994,7 +3233,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -3011,10 +3250,10 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="162" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5546875" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -3023,7 +3262,7 @@
     <col min="5" max="5" width="31.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3034,61 +3273,61 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="20" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="47">
+      <c r="C3" s="36">
         <v>10</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="B4" s="30" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="23">
         <v>500</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="30" t="s">
-        <v>213</v>
+      <c r="E4" s="19" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -3103,11 +3342,11 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="233" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -3116,7 +3355,7 @@
     <col min="5" max="5" width="46.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3127,95 +3366,95 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="20" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="47">
+      <c r="C3" s="36">
         <v>10</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="35">
         <v>200</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="42" t="s">
-        <v>219</v>
-      </c>
-      <c r="B5" s="42" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="34">
         <v>200</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="42" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="B6" s="30" t="s">
+      <c r="E5" s="31" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="23">
         <v>100</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="30" t="s">
-        <v>222</v>
+      <c r="E6" s="19" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -3231,10 +3470,10 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="146" workbookViewId="0">
-      <selection sqref="A1:C3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -3243,7 +3482,7 @@
     <col min="5" max="5" width="41.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3254,112 +3493,112 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="20" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="47">
+      <c r="C3" s="36">
         <v>50</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="B4" s="30" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="37">
         <v>50</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="30" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="30" t="s">
-        <v>229</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="30" t="s">
-        <v>231</v>
-      </c>
-      <c r="B6" s="30" t="s">
+      <c r="E4" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="37">
         <v>100</v>
       </c>
-      <c r="D6" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="30" t="s">
+      <c r="D6" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>233</v>
+      <c r="C7" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -3372,20 +3611,20 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.5546875" customWidth="1"/>
     <col min="4" max="4" width="72.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="68" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3396,200 +3635,222 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="20" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="23">
+        <v>50</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="23">
+        <v>20</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>252</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="B11" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="19" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="30" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="30" t="s">
+      <c r="B12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="19" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="30" t="s">
-        <v>239</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="34">
-        <v>50</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="34">
-        <v>20</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>251</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="30" t="s">
-        <v>247</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="30" t="s">
-        <v>249</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>250</v>
-      </c>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="53" t="s">
+        <v>289</v>
+      </c>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="55"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="B15" s="56" t="s">
+        <v>304</v>
+      </c>
+      <c r="C15" s="57"/>
+      <c r="D15" s="58"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="B15:D15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3602,17 +3863,17 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A11" sqref="A11:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.77734375" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" customWidth="1"/>
+    <col min="4" max="4" width="54" customWidth="1"/>
     <col min="5" max="5" width="59.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3623,146 +3884,146 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="20" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="38" t="s">
+      <c r="E5" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="23">
+        <v>50</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="E3" s="41" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="B8" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="30" t="s">
-        <v>260</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="34">
-        <v>50</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="30" t="s">
-        <v>266</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>267</v>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -3775,20 +4036,20 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="4" max="4" width="58.5546875" customWidth="1"/>
+    <col min="4" max="4" width="64.109375" customWidth="1"/>
     <col min="5" max="5" width="39.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3799,98 +4060,120 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="20" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.8" customHeight="1">
-      <c r="A3" s="38" t="s">
-        <v>255</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>279</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="42" t="s">
-        <v>273</v>
-      </c>
-      <c r="B5" s="42" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="B5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="34">
         <v>20</v>
       </c>
-      <c r="D5" s="42" t="s">
-        <v>277</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="30" t="s">
-        <v>275</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>276</v>
-      </c>
+      <c r="D5" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="53" t="s">
+        <v>289</v>
+      </c>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="56" t="s">
+        <v>305</v>
+      </c>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="B9:D9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3900,20 +4183,22 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.5546875" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.5546875" customWidth="1"/>
+    <col min="4" max="4" width="70.6640625" customWidth="1"/>
     <col min="5" max="5" width="49.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3930,209 +4215,232 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="17">
         <v>50</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="30" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="27" t="s">
+      <c r="E3" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="17">
         <v>50</v>
       </c>
-      <c r="D4" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="27" t="s">
-        <v>93</v>
+      <c r="D4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>91</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="17">
         <v>50</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="30" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.8" customHeight="1">
-      <c r="A6" s="27" t="s">
-        <v>95</v>
+      <c r="E5" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>93</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="17">
         <v>50</v>
       </c>
-      <c r="D6" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="27" t="s">
+      <c r="D6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="29" t="s">
+      <c r="C7" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="17">
+        <v>1</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="30" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="17">
+        <v>100</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="28">
-        <v>1</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="E8" s="30" t="s">
+      <c r="E9" s="19" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="30" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="28">
-        <v>100</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" s="30" t="s">
+      <c r="C11" s="17">
+        <v>50</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="19" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="27" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="39" t="s">
+        <v>281</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="28">
-        <v>50</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>112</v>
-      </c>
+      <c r="C14" s="41">
+        <v>5</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D15" s="40"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E19" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4144,20 +4452,20 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A12" sqref="A12:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="42.109375" customWidth="1"/>
+    <col min="4" max="4" width="63.21875" customWidth="1"/>
     <col min="5" max="5" width="49.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4168,164 +4476,167 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="20" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1">
-      <c r="A3" s="38" t="s">
-        <v>255</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="38" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="34">
+        <v>100</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="23">
+        <v>100</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="E3" s="41" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="42" t="s">
-        <v>283</v>
-      </c>
-      <c r="B5" s="42" t="s">
+      <c r="B7" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="45">
-        <v>100</v>
-      </c>
-      <c r="D5" s="42" t="s">
+      <c r="C7" s="23">
+        <v>50</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="42" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="30" t="s">
-        <v>285</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="34">
-        <v>100</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="30" t="s">
-        <v>287</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="34">
-        <v>50</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="30" t="s">
-        <v>291</v>
-      </c>
-      <c r="B9" s="30" t="s">
+      <c r="E7" s="19" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="B10" s="30" t="s">
+      <c r="C9" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="30" t="s">
+      <c r="C10" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="30" t="s">
-        <v>294</v>
-      </c>
+      <c r="E10" s="19" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E18" s="63"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4340,17 +4651,17 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A8" sqref="A8:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="41.33203125" customWidth="1"/>
     <col min="5" max="5" width="39.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4367,89 +4678,89 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="20" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="E3" s="32" t="s">
+      <c r="B4" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="23">
+        <v>20</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="30" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C5" s="23">
         <v>20</v>
       </c>
-      <c r="D4" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="E4" s="30" t="s">
+      <c r="D5" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="19" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="30" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="34">
-        <v>20</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="30" t="s">
+      <c r="B6" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4462,21 +4773,22 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E8"/>
+    <sheetView zoomScale="138" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.88671875" customWidth="1"/>
-    <col min="4" max="4" width="24.21875" customWidth="1"/>
-    <col min="5" max="5" width="55.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="66.33203125" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" customWidth="1"/>
     <col min="6" max="6" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4492,135 +4804,168 @@
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="36"/>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="F1" s="25"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="20" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="25"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="25"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="25"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="23">
+        <v>20</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="F5" s="25"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6" s="25"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="F2" s="36"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="F3" s="36"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="32" t="s">
+      <c r="B7" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="E4" s="32" t="s">
+      <c r="F7" s="25"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="F4" s="36"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="30" t="s">
+      <c r="B8" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="34">
-        <v>20</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="36"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="F6" s="36"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="F7" s="36"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="F8" s="36"/>
+      <c r="F8" s="25"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="53" t="s">
+        <v>289</v>
+      </c>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="59" t="s">
+        <v>308</v>
+      </c>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="B12" s="56" t="s">
+        <v>309</v>
+      </c>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B11:D11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4632,18 +4977,18 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="29.5546875" customWidth="1"/>
+    <col min="4" max="4" width="61.5546875" customWidth="1"/>
     <col min="5" max="5" width="60.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4660,106 +5005,106 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="20" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="23">
+        <v>20</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="32" t="s">
+      <c r="B7" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>140</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="34">
-        <v>20</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -4775,17 +5120,17 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E10"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.21875" customWidth="1"/>
     <col min="4" max="4" width="24.33203125" customWidth="1"/>
     <col min="5" max="5" width="36.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4796,163 +5141,163 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="20" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="23">
+        <v>20</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="23">
+        <v>50</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="23">
+        <v>100</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="23">
+        <v>100</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="23">
+        <v>100</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="30" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="23">
+        <v>20</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="34">
-        <v>20</v>
-      </c>
-      <c r="D3" s="35" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="B9" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="30" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>155</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="34">
-        <v>50</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="34">
-        <v>100</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="34">
-        <v>100</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="34">
-        <v>100</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="34">
-        <v>20</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -4965,20 +5310,20 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" customWidth="1"/>
+    <col min="4" max="4" width="47" customWidth="1"/>
     <col min="5" max="5" width="44.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4989,98 +5334,120 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="20" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="B5" s="30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="B6" s="30" t="s">
+      <c r="C5" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>172</v>
-      </c>
+      <c r="C6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="53" t="s">
+        <v>289</v>
+      </c>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>296</v>
+      </c>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="B9:D9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5090,139 +5457,172 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A2:E8"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" customWidth="1"/>
-    <col min="5" max="5" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="58.6640625" customWidth="1"/>
+    <col min="5" max="5" width="33.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="D1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="C2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="E4" s="32" t="s">
+      <c r="E2" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="23">
+        <v>20</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="34">
-        <v>20</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="B8" s="30" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="35" t="s">
+      <c r="C7" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="30" t="s">
-        <v>179</v>
-      </c>
+      <c r="E7" s="19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="53" t="s">
+        <v>289</v>
+      </c>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>306</v>
+      </c>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>307</v>
+      </c>
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5234,11 +5634,9 @@
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView zoomScale="222" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
+    <sheetView zoomScale="222" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -5247,7 +5645,7 @@
     <col min="5" max="5" width="31.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -5258,15 +5656,15 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>5</v>
@@ -5278,12 +5676,12 @@
         <v>24</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>5</v>
@@ -5295,7 +5693,7 @@
         <v>25</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
